--- a/NEW HR/DE ASIS, JANETTE.xlsx
+++ b/NEW HR/DE ASIS, JANETTE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>2/9,10/2023</t>
+  </si>
+  <si>
+    <t>BPLO</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>4/24,25, 5/5/2023</t>
   </si>
 </sst>
 </file>
@@ -595,6 +604,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -607,20 +625,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,7 +1326,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1369,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1433,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1493,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1559,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1622,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1720,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1779,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1844,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1887,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1962,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2148,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2214,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2272,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2338,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2394,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2469,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2512,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2578,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2634,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2732,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2795,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,8 +3273,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A68" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,14 +3304,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3313,14 +3322,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3333,14 +3342,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3366,18 +3377,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3424,7 +3435,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3434,7 +3445,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4796,15 +4807,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4812,15 +4827,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4828,15 +4847,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4844,7 +4867,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -5725,17 +5750,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5773,7 +5798,7 @@
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5804,14 +5829,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5825,14 +5850,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5843,17 +5868,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="55"/>
+        <v>BPLO</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5879,18 +5904,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5947,7 +5972,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.683</v>
+        <v>55.683</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6083,8 +6108,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C16" s="42"/>
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
@@ -6093,10 +6122,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="43">
+        <v>3</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>

--- a/NEW HR/DE ASIS, JANETTE.xlsx
+++ b/NEW HR/DE ASIS, JANETTE.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>4/24,25, 5/5/2023</t>
+  </si>
+  <si>
+    <t>SL(9-0-0)</t>
+  </si>
+  <si>
+    <t>6/5-16/2023</t>
   </si>
 </sst>
 </file>
@@ -604,15 +610,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -625,11 +622,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,7 +1332,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1375,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1439,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1499,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1565,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1628,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1726,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1785,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1850,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1893,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1968,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2154,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2220,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2278,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2344,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2400,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2475,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2518,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2584,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2640,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2738,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2801,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,14 +3310,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3322,14 +3328,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3342,16 +3348,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3377,18 +3383,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5750,17 +5756,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5798,7 +5804,7 @@
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5829,14 +5835,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5850,14 +5856,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5868,17 +5874,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>BPLO</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5904,18 +5910,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5972,7 +5978,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.683</v>
+        <v>46.683</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6132,8 +6138,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="40">
+        <v>45096</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
       <c r="E17" s="9"/>
@@ -6142,10 +6152,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="39">
+        <v>9</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>

--- a/NEW HR/DE ASIS, JANETTE.xlsx
+++ b/NEW HR/DE ASIS, JANETTE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -222,10 +222,10 @@
     <t>4/24,25, 5/5/2023</t>
   </si>
   <si>
-    <t>SL(9-0-0)</t>
+    <t>6/5-16/2023</t>
   </si>
   <si>
-    <t>6/5-16/2023</t>
+    <t>SL(10-0-0)</t>
   </si>
 </sst>
 </file>
@@ -610,6 +610,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -622,20 +631,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,7 +1332,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1375,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1439,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1565,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1628,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1726,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1785,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1850,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1893,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1968,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2154,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2220,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2278,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2344,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2400,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2475,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2518,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2584,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2640,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2738,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2801,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,8 +3277,8 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A68" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
@@ -3310,14 +3310,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3328,14 +3328,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3348,16 +3348,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3383,18 +3383,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5756,17 +5756,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5801,10 +5801,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5835,14 +5835,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5856,14 +5856,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5874,17 +5874,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>BPLO</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5910,18 +5910,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5978,7 +5978,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.683</v>
+        <v>45.683</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6142,7 +6142,7 @@
         <v>45096</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
@@ -6153,12 +6153,12 @@
         <v/>
       </c>
       <c r="H17" s="39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/NEW HR/DE ASIS, JANETTE.xlsx
+++ b/NEW HR/DE ASIS, JANETTE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B876D-86AD-41D3-865F-6B08EC3F8A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -227,11 +228,17 @@
   <si>
     <t>SL(10-0-0)</t>
   </si>
+  <si>
+    <t>07/10,12/2023</t>
+  </si>
+  <si>
+    <t>7/31 - 8/1/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1332,7 +1339,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1382,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1446,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1506,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1572,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1635,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1733,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1792,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1857,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1900,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1975,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2161,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2227,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2285,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2351,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2407,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2482,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2525,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2591,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2647,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2745,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2808,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2857,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2867,25 +2874,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2897,25 +2904,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2927,13 +2934,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2942,14 +2949,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3253,7 +3260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3263,7 +3270,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3271,34 +3278,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A74" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3319,7 +3326,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3337,7 +3344,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3359,7 +3366,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3367,7 +3374,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3380,7 +3387,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3397,7 +3404,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3432,7 +3439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3441,7 +3448,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3451,12 +3458,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3478,7 +3485,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3498,7 +3505,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3518,7 +3525,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3538,7 +3545,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3558,7 +3565,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3578,7 +3585,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3598,7 +3605,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3618,7 +3625,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3638,7 +3645,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3658,7 +3665,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3678,7 +3685,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3698,7 +3705,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3722,7 +3729,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3740,7 +3747,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3760,7 +3767,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3780,7 +3787,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3800,7 +3807,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3820,7 +3827,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3840,7 +3847,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3860,7 +3867,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3880,7 +3887,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3900,7 +3907,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3920,7 +3927,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3940,7 +3947,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3960,7 +3967,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3984,7 +3991,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4002,7 +4009,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4022,7 +4029,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4046,7 +4053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4066,7 +4073,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4086,7 +4093,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4106,7 +4113,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4126,7 +4133,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4146,7 +4153,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4166,7 +4173,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4186,7 +4193,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4206,7 +4213,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4226,7 +4233,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4250,7 +4257,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4268,7 +4275,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4288,7 +4295,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4308,7 +4315,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4328,7 +4335,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4348,7 +4355,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4368,7 +4375,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4388,7 +4395,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4408,7 +4415,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4428,7 +4435,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4448,7 +4455,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4468,7 +4475,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4488,7 +4495,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4512,7 +4519,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4530,7 +4537,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4550,7 +4557,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4570,7 +4577,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4590,7 +4597,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4610,7 +4617,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4630,7 +4637,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4650,7 +4657,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4670,7 +4677,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4690,7 +4697,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4710,7 +4717,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4730,7 +4737,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4750,7 +4757,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4774,7 +4781,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4792,7 +4799,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4812,7 +4819,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4832,7 +4839,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4852,7 +4859,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4872,57 +4879,67 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4938,7 +4955,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4954,7 +4971,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4970,7 +4987,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4986,7 +5003,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5002,7 +5019,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5018,7 +5035,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5034,7 +5051,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5050,7 +5067,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5066,7 +5083,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5082,7 +5099,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5098,7 +5115,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5114,7 +5131,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5130,7 +5147,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5146,7 +5163,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5162,7 +5179,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5178,7 +5195,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5194,7 +5211,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5210,7 +5227,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5226,7 +5243,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5242,7 +5259,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5258,7 +5275,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5274,7 +5291,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5290,7 +5307,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5306,7 +5323,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5322,7 +5339,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5338,7 +5355,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5354,7 +5371,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5370,7 +5387,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5386,7 +5403,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5402,7 +5419,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5418,7 +5435,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5434,7 +5451,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5450,7 +5467,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5466,7 +5483,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5482,7 +5499,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5498,7 +5515,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5514,7 +5531,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5530,7 +5547,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5546,7 +5563,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5562,7 +5579,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5578,7 +5595,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5594,7 +5611,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5610,7 +5627,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5626,7 +5643,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5642,7 +5659,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5658,7 +5675,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5674,7 +5691,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5690,7 +5707,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5706,7 +5723,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5722,7 +5739,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5738,7 +5755,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5769,10 +5786,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5795,34 +5812,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5844,7 +5861,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5865,7 +5882,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5886,7 +5903,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5894,7 +5911,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5907,7 +5924,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -5924,7 +5941,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5959,7 +5976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5978,12 +5995,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>45.683</v>
+        <v>41.683</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6005,7 +6022,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -6029,7 +6046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>46</v>
       </c>
@@ -6047,7 +6064,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44888</v>
       </c>
@@ -6071,7 +6088,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>47</v>
       </c>
@@ -6089,7 +6106,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44958</v>
       </c>
@@ -6113,7 +6130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>45017</v>
       </c>
@@ -6137,7 +6154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>45096</v>
       </c>
@@ -6161,9 +6178,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
@@ -6172,14 +6193,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="39">
+        <v>2</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="20"/>
+      <c r="K18" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>45140</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
@@ -6188,12 +6217,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39">
+        <v>2</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6209,7 +6242,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6225,7 +6258,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6241,7 +6274,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6257,7 +6290,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6273,7 +6306,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6289,7 +6322,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6305,7 +6338,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6321,7 +6354,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6337,7 +6370,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6353,7 +6386,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6369,7 +6402,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6385,7 +6418,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6401,7 +6434,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6417,7 +6450,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6433,7 +6466,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6449,7 +6482,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6465,7 +6498,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6481,7 +6514,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6497,7 +6530,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6513,7 +6546,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6529,7 +6562,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6545,7 +6578,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6561,7 +6594,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6577,7 +6610,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6593,7 +6626,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6609,7 +6642,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6625,7 +6658,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6641,7 +6674,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6657,7 +6690,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6673,7 +6706,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6689,7 +6722,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6705,7 +6738,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6721,7 +6754,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6737,7 +6770,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6753,7 +6786,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6769,7 +6802,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6785,7 +6818,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6801,7 +6834,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6817,7 +6850,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6833,7 +6866,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6849,7 +6882,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6865,7 +6898,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6881,7 +6914,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6897,7 +6930,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6913,7 +6946,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6929,7 +6962,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6945,7 +6978,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6961,7 +6994,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6977,7 +7010,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6993,7 +7026,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7009,7 +7042,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7025,7 +7058,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7041,7 +7074,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7057,7 +7090,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7073,7 +7106,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7089,7 +7122,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7105,7 +7138,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7121,7 +7154,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7137,7 +7170,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7153,7 +7186,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7169,7 +7202,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7185,7 +7218,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7201,7 +7234,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7217,7 +7250,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7233,7 +7266,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7249,7 +7282,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7265,7 +7298,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7281,7 +7314,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7297,7 +7330,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7313,7 +7346,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7329,7 +7362,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7345,7 +7378,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7361,7 +7394,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7377,7 +7410,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7393,7 +7426,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7409,7 +7442,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7425,7 +7458,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7441,7 +7474,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7457,7 +7490,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7473,7 +7506,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7489,7 +7522,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7505,7 +7538,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7521,7 +7554,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7537,7 +7570,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7553,7 +7586,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7569,7 +7602,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7585,7 +7618,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7601,7 +7634,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7617,7 +7650,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7633,7 +7666,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7649,7 +7682,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7665,7 +7698,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7681,7 +7714,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7697,7 +7730,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7713,7 +7746,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7729,7 +7762,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7745,7 +7778,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7761,7 +7794,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7777,7 +7810,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7793,7 +7826,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7809,7 +7842,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7825,7 +7858,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7841,7 +7874,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7857,7 +7890,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7873,7 +7906,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7889,7 +7922,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7905,7 +7938,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7921,7 +7954,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7937,7 +7970,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7953,7 +7986,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7984,10 +8017,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8010,7 +8043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8018,21 +8051,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8045,7 +8078,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8074,7 +8107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>22.895</v>
       </c>
@@ -8098,17 +8131,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8129,7 +8162,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8156,7 +8189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8182,7 +8215,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8208,7 +8241,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8234,7 +8267,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8260,7 +8293,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8286,7 +8319,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8312,7 +8345,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8338,7 +8371,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8358,7 +8391,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8378,7 +8411,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8398,7 +8431,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8419,7 +8452,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8440,7 +8473,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8461,7 +8494,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8482,7 +8515,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8503,7 +8536,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8524,7 +8557,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8545,7 +8578,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8566,7 +8599,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8587,7 +8620,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8608,7 +8641,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8629,7 +8662,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8650,7 +8683,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8671,7 +8704,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8692,7 +8725,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8713,7 +8746,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8734,7 +8767,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8755,7 +8788,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8776,7 +8809,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8797,7 +8830,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8818,7 +8851,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8827,7 +8860,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8836,7 +8869,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8845,7 +8878,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8854,7 +8887,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8863,7 +8896,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8872,7 +8905,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8881,7 +8914,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8890,7 +8923,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8899,7 +8932,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8908,7 +8941,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8917,7 +8950,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8926,7 +8959,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8935,7 +8968,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8944,7 +8977,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8953,7 +8986,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8962,7 +8995,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8971,7 +9004,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8980,7 +9013,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8989,7 +9022,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8998,7 +9031,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9007,7 +9040,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9016,7 +9049,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9025,7 +9058,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9034,7 +9067,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9043,7 +9076,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9052,7 +9085,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9061,7 +9094,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9070,7 +9103,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9079,7 +9112,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DE ASIS, JANETTE.xlsx
+++ b/NEW HR/DE ASIS, JANETTE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B876D-86AD-41D3-865F-6B08EC3F8A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -238,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1339,7 +1338,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1381,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1445,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1505,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1571,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1634,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1732,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1791,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1856,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +1899,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1974,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2160,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2226,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2284,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2350,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2406,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2481,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2524,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2590,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2646,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2744,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2807,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2857,7 +2856,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2874,25 +2873,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2904,25 +2903,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2934,13 +2933,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2949,14 +2948,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3260,7 +3259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3270,7 +3269,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3278,34 +3277,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A74" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3326,7 +3325,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3344,7 +3343,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3366,7 +3365,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3374,7 +3373,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3387,7 +3386,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3404,7 +3403,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3448,7 +3447,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3458,12 +3457,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3485,7 +3484,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3505,7 +3504,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3525,7 +3524,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3545,7 +3544,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3565,7 +3564,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3585,7 +3584,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3605,7 +3604,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3625,7 +3624,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3645,7 +3644,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3665,7 +3664,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3685,7 +3684,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3705,7 +3704,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3729,7 +3728,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3747,7 +3746,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3767,7 +3766,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3787,7 +3786,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3807,7 +3806,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3827,7 +3826,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3847,7 +3846,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3867,7 +3866,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3887,7 +3886,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3907,7 +3906,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3927,7 +3926,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3947,7 +3946,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3967,7 +3966,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3991,7 +3990,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4073,7 +4072,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4093,7 +4092,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4133,7 +4132,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4153,7 +4152,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4173,7 +4172,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4193,7 +4192,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4213,7 +4212,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4233,7 +4232,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4257,7 +4256,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4275,7 +4274,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4295,7 +4294,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4315,7 +4314,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4335,7 +4334,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4355,7 +4354,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4375,7 +4374,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4395,7 +4394,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4415,7 +4414,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4435,7 +4434,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4455,7 +4454,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4475,7 +4474,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4495,7 +4494,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4519,7 +4518,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4537,7 +4536,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4557,7 +4556,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4577,7 +4576,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4597,7 +4596,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4617,7 +4616,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4637,7 +4636,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4657,7 +4656,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4677,7 +4676,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4697,7 +4696,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4717,7 +4716,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4737,7 +4736,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4757,7 +4756,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4781,7 +4780,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4799,7 +4798,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4819,7 +4818,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4839,7 +4838,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4859,7 +4858,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4879,7 +4878,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
@@ -4899,7 +4898,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -4919,7 +4918,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45108</v>
       </c>
@@ -4939,40 +4938,50 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4987,7 +4996,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5003,7 +5012,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5019,7 +5028,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5035,7 +5044,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5051,7 +5060,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5067,7 +5076,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5083,7 +5092,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5099,7 +5108,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5115,7 +5124,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5131,7 +5140,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5147,7 +5156,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5163,7 +5172,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5179,7 +5188,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5195,7 +5204,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5211,7 +5220,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5227,7 +5236,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5243,7 +5252,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5259,7 +5268,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5275,7 +5284,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5291,7 +5300,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5307,7 +5316,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5323,7 +5332,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5339,7 +5348,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5355,7 +5364,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5371,7 +5380,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5387,7 +5396,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5403,7 +5412,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5419,7 +5428,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5435,7 +5444,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5451,7 +5460,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5467,7 +5476,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5483,7 +5492,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5499,7 +5508,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5515,7 +5524,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5531,7 +5540,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5547,7 +5556,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5563,7 +5572,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5579,7 +5588,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5595,7 +5604,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5611,7 +5620,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5627,7 +5636,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5643,7 +5652,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5659,7 +5668,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5675,7 +5684,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5691,7 +5700,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5707,7 +5716,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5723,7 +5732,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5739,7 +5748,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5755,7 +5764,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5786,10 +5795,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5812,34 +5821,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A12" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5861,7 +5870,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5882,7 +5891,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5903,7 +5912,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5911,7 +5920,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5924,7 +5933,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -5941,7 +5950,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5976,7 +5985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5995,12 +6004,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.683</v>
+        <v>39.683</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6022,7 +6031,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -6046,7 +6055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>46</v>
       </c>
@@ -6064,7 +6073,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44888</v>
       </c>
@@ -6088,7 +6097,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>47</v>
       </c>
@@ -6106,7 +6115,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44958</v>
       </c>
@@ -6130,7 +6139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>45017</v>
       </c>
@@ -6154,7 +6163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>45096</v>
       </c>
@@ -6178,7 +6187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>45108</v>
       </c>
@@ -6202,7 +6211,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>45140</v>
       </c>
@@ -6226,9 +6235,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -6237,14 +6250,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="39">
+        <v>1</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="49">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -6253,12 +6272,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="49">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6274,7 +6297,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6290,7 +6313,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6306,7 +6329,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6322,7 +6345,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6338,7 +6361,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6354,7 +6377,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6370,7 +6393,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6386,7 +6409,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6402,7 +6425,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6418,7 +6441,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6434,7 +6457,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6450,7 +6473,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6466,7 +6489,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6482,7 +6505,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6498,7 +6521,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6514,7 +6537,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6530,7 +6553,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6546,7 +6569,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6562,7 +6585,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6578,7 +6601,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6594,7 +6617,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6610,7 +6633,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6626,7 +6649,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6642,7 +6665,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6658,7 +6681,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6674,7 +6697,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6690,7 +6713,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6706,7 +6729,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6722,7 +6745,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6738,7 +6761,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6754,7 +6777,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6770,7 +6793,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6786,7 +6809,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6802,7 +6825,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6818,7 +6841,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6834,7 +6857,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6850,7 +6873,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6866,7 +6889,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6882,7 +6905,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6898,7 +6921,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6914,7 +6937,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6930,7 +6953,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6946,7 +6969,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6962,7 +6985,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6978,7 +7001,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6994,7 +7017,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7010,7 +7033,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7026,7 +7049,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7042,7 +7065,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7058,7 +7081,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7074,7 +7097,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7090,7 +7113,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7106,7 +7129,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7122,7 +7145,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7138,7 +7161,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7154,7 +7177,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7170,7 +7193,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7186,7 +7209,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7202,7 +7225,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7218,7 +7241,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7234,7 +7257,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7250,7 +7273,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7266,7 +7289,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7282,7 +7305,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7298,7 +7321,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7314,7 +7337,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7330,7 +7353,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7346,7 +7369,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7362,7 +7385,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7378,7 +7401,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7394,7 +7417,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7410,7 +7433,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7426,7 +7449,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7442,7 +7465,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7458,7 +7481,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7474,7 +7497,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7490,7 +7513,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7506,7 +7529,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7522,7 +7545,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7538,7 +7561,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7554,7 +7577,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7570,7 +7593,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7586,7 +7609,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7602,7 +7625,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7618,7 +7641,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7634,7 +7657,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7650,7 +7673,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7666,7 +7689,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7682,7 +7705,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7698,7 +7721,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7714,7 +7737,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7730,7 +7753,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7746,7 +7769,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7762,7 +7785,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7778,7 +7801,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7794,7 +7817,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7810,7 +7833,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7826,7 +7849,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7842,7 +7865,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7858,7 +7881,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7874,7 +7897,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7890,7 +7913,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7906,7 +7929,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7922,7 +7945,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7938,7 +7961,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7954,7 +7977,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7970,7 +7993,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7986,7 +8009,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8017,10 +8040,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8043,7 +8066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8051,21 +8074,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8078,7 +8101,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8107,7 +8130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>22.895</v>
       </c>
@@ -8131,17 +8154,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8162,7 +8185,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8189,7 +8212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8215,7 +8238,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8241,7 +8264,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8267,7 +8290,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8293,7 +8316,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8319,7 +8342,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8345,7 +8368,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8371,7 +8394,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8391,7 +8414,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8411,7 +8434,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8431,7 +8454,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8452,7 +8475,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8473,7 +8496,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8494,7 +8517,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8515,7 +8538,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8536,7 +8559,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8557,7 +8580,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8578,7 +8601,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8599,7 +8622,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8620,7 +8643,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8641,7 +8664,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8662,7 +8685,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8683,7 +8706,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8704,7 +8727,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8725,7 +8748,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8746,7 +8769,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8767,7 +8790,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8788,7 +8811,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8809,7 +8832,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8830,7 +8853,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8851,7 +8874,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8860,7 +8883,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8869,7 +8892,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8878,7 +8901,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8887,7 +8910,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8896,7 +8919,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8905,7 +8928,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8914,7 +8937,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8923,7 +8946,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8932,7 +8955,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8941,7 +8964,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8950,7 +8973,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8959,7 +8982,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8968,7 +8991,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8977,7 +9000,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8986,7 +9009,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8995,7 +9018,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9004,7 +9027,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9013,7 +9036,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9022,7 +9045,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9031,7 +9054,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9040,7 +9063,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9049,7 +9072,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9058,7 +9081,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9067,7 +9090,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9076,7 +9099,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9085,7 +9108,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9094,7 +9117,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9103,7 +9126,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9112,7 +9135,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DE ASIS, JANETTE.xlsx
+++ b/NEW HR/DE ASIS, JANETTE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>12/15,27-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -625,15 +631,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -646,11 +643,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1347,7 +1353,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1396,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1460,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1520,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1586,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1649,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1747,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1806,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1871,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1914,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1989,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2175,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2241,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2299,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2365,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2421,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2496,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2539,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2605,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2661,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2759,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2822,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +2888,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3290,12 +3296,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,14 +3331,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3343,14 +3349,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3363,16 +3369,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3398,18 +3404,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3456,7 +3462,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>62.5</v>
+        <v>65.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3466,7 +3472,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>91.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5012,13 +5018,15 @@
         <v>45260</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5029,14 +5037,18 @@
       <c r="A87" s="40">
         <v>45291</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="B87" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5044,8 +5056,8 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45322</v>
+      <c r="A88" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5063,16 +5075,18 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5081,11 +5095,15 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B90" s="20"/>
+        <v>45351</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>1</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -5095,10 +5113,14 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="49">
+        <v>45323</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45382</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5786,34 +5808,50 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5848,10 +5886,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5882,14 +5920,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5903,14 +5941,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5921,17 +5959,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>BPLO</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5957,18 +5995,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DE ASIS, JANETTE.xlsx
+++ b/NEW HR/DE ASIS, JANETTE.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>02/8,12/2024</t>
   </si>
 </sst>
 </file>
@@ -631,6 +634,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -643,20 +655,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1353,7 +1356,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1399,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1463,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1523,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1589,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +1652,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1750,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1809,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1874,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1917,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1992,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2178,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2244,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2302,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2368,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2424,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2499,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2542,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2608,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2664,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2762,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2825,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2891,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3296,12 +3299,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,14 +3334,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3349,14 +3352,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3369,16 +3372,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3404,18 +3407,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3472,7 +3475,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>91.25</v>
+        <v>89.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5118,10 +5121,10 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B91" s="20"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -5130,13 +5133,19 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>2</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45382</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5824,34 +5833,50 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5920,14 +5945,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5941,14 +5966,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5959,17 +5984,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>BPLO</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5995,18 +6020,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
